--- a/data_year/zb/建筑业/按登记注册类型分建筑业企业负债.xlsx
+++ b/data_year/zb/建筑业/按登记注册类型分建筑业企业负债.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,590 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10201.5196</v>
+        <v>49718.723</v>
       </c>
       <c r="C2" t="n">
-        <v>5305.3525</v>
+        <v>12374.2748</v>
       </c>
       <c r="D2" t="n">
-        <v>49.971</v>
+        <v>307.7347</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0074</v>
+        <v>4.5836</v>
       </c>
       <c r="F2" t="n">
-        <v>10345.21688</v>
+        <v>50349.1708</v>
       </c>
       <c r="G2" t="n">
-        <v>93.72629999999999</v>
+        <v>322.7131</v>
       </c>
       <c r="H2" t="n">
-        <v>12.2613</v>
+        <v>48.3518</v>
       </c>
       <c r="I2" t="n">
-        <v>2316.9121</v>
+        <v>1489.6366</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11185.5257</v>
+        <v>62591.89114</v>
       </c>
       <c r="C3" t="n">
-        <v>5314.6391</v>
+        <v>15115.56614</v>
       </c>
       <c r="D3" t="n">
-        <v>50.1815</v>
+        <v>540.27004</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8458</v>
+        <v>2.39196</v>
       </c>
       <c r="F3" t="n">
-        <v>11333.83165</v>
+        <v>63595.06712</v>
       </c>
       <c r="G3" t="n">
-        <v>98.1245</v>
+        <v>462.90594</v>
       </c>
       <c r="H3" t="n">
-        <v>15.1196</v>
+        <v>109.49932</v>
       </c>
       <c r="I3" t="n">
-        <v>1896.2359</v>
+        <v>1713.18152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12823.833</v>
+        <v>74606.02593</v>
       </c>
       <c r="C4" t="n">
-        <v>5287.7122</v>
+        <v>17782.4578</v>
       </c>
       <c r="D4" t="n">
-        <v>58.7318</v>
+        <v>408.28666</v>
       </c>
       <c r="E4" t="n">
-        <v>2.2189</v>
+        <v>0.5825399999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>12985.6808</v>
+        <v>75529.71696000001</v>
       </c>
       <c r="G4" t="n">
-        <v>103.116</v>
+        <v>515.40437</v>
       </c>
       <c r="H4" t="n">
-        <v>16.045</v>
+        <v>76.01683</v>
       </c>
       <c r="I4" t="n">
-        <v>1966.1683</v>
+        <v>1956.4215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14809.5208</v>
+        <v>99093.38548</v>
       </c>
       <c r="C5" t="n">
-        <v>5477.7766</v>
+        <v>19400.52176</v>
       </c>
       <c r="D5" t="n">
-        <v>86.3509</v>
+        <v>603.32258</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0005</v>
+        <v>391.59253</v>
       </c>
       <c r="F5" t="n">
-        <v>14992.4251</v>
+        <v>100459.18004</v>
       </c>
       <c r="G5" t="n">
-        <v>96.5534</v>
+        <v>762.47198</v>
       </c>
       <c r="H5" t="n">
-        <v>5.0558</v>
+        <v>156.80077</v>
       </c>
       <c r="I5" t="n">
-        <v>1765.9802</v>
+        <v>1659.94398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20060.74442</v>
+        <v>108691.90601</v>
       </c>
       <c r="C6" t="n">
-        <v>6685.45606</v>
+        <v>21650.11168</v>
       </c>
       <c r="D6" t="n">
-        <v>177.62389</v>
+        <v>568.96673</v>
       </c>
       <c r="E6" t="n">
-        <v>40.22465</v>
+        <v>386.57619</v>
       </c>
       <c r="F6" t="n">
-        <v>20362.73962</v>
+        <v>110114.37228</v>
       </c>
       <c r="G6" t="n">
-        <v>124.37131</v>
+        <v>853.49954</v>
       </c>
       <c r="H6" t="n">
-        <v>12.4873</v>
+        <v>226.8465</v>
       </c>
       <c r="I6" t="n">
-        <v>1452.0948</v>
+        <v>1632.25401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23013.73134</v>
+        <v>119996.77269</v>
       </c>
       <c r="C7" t="n">
-        <v>6943.2846</v>
+        <v>24300.93758</v>
       </c>
       <c r="D7" t="n">
-        <v>197.33785</v>
+        <v>633.0787</v>
       </c>
       <c r="E7" t="n">
-        <v>76.94555</v>
+        <v>443.26129</v>
       </c>
       <c r="F7" t="n">
-        <v>23375.57509</v>
+        <v>121505.27937</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5059</v>
+        <v>875.42798</v>
       </c>
       <c r="H7" t="n">
-        <v>21.53529</v>
+        <v>250.00548</v>
       </c>
       <c r="I7" t="n">
-        <v>1414.59322</v>
+        <v>1671.95647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27729.41362</v>
+        <v>135091.33424</v>
       </c>
       <c r="C8" t="n">
-        <v>7970.46621</v>
+        <v>27880.471</v>
       </c>
       <c r="D8" t="n">
-        <v>266.64653</v>
+        <v>679.5054699999999</v>
       </c>
       <c r="E8" t="n">
-        <v>96.69562000000001</v>
+        <v>492.36215</v>
       </c>
       <c r="F8" t="n">
-        <v>28166.3663</v>
+        <v>136900.6907</v>
       </c>
       <c r="G8" t="n">
-        <v>170.30615</v>
+        <v>1129.85099</v>
       </c>
       <c r="H8" t="n">
-        <v>38.18579</v>
+        <v>279.63965</v>
       </c>
       <c r="I8" t="n">
-        <v>1403.17646</v>
+        <v>1582.92303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33530.48657</v>
+        <v>157430.00623</v>
       </c>
       <c r="C9" t="n">
-        <v>9481.74495</v>
+        <v>30534.91323</v>
       </c>
       <c r="D9" t="n">
-        <v>292.41244</v>
+        <v>863.71657</v>
       </c>
       <c r="E9" t="n">
-        <v>6.50102</v>
+        <v>611.21356</v>
       </c>
       <c r="F9" t="n">
-        <v>34034.9799</v>
+        <v>159218.09563</v>
       </c>
       <c r="G9" t="n">
-        <v>212.08089</v>
+        <v>924.37283</v>
       </c>
       <c r="H9" t="n">
-        <v>49.4251</v>
+        <v>281.20884</v>
       </c>
       <c r="I9" t="n">
-        <v>1386.36808</v>
+        <v>1416.98313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40370.46449</v>
+        <v>174536.84277</v>
       </c>
       <c r="C10" t="n">
-        <v>11063.30957</v>
+        <v>34578.26036</v>
       </c>
       <c r="D10" t="n">
-        <v>290.78333</v>
+        <v>1045.28518</v>
       </c>
       <c r="E10" t="n">
-        <v>5.28772</v>
+        <v>799.46629</v>
       </c>
       <c r="F10" t="n">
-        <v>40915.6885</v>
+        <v>176472.89486</v>
       </c>
       <c r="G10" t="n">
-        <v>254.44068</v>
+        <v>890.7669100000001</v>
       </c>
       <c r="H10" t="n">
-        <v>48.87552</v>
+        <v>263.65517</v>
       </c>
       <c r="I10" t="n">
-        <v>1405.20259</v>
+        <v>1393.19804</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49718.723</v>
+        <v>194677.07876</v>
       </c>
       <c r="C11" t="n">
-        <v>12374.2748</v>
+        <v>40554.50571</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7347</v>
+        <v>1431.79463</v>
       </c>
       <c r="E11" t="n">
-        <v>4.5836</v>
+        <v>830.6804</v>
       </c>
       <c r="F11" t="n">
-        <v>50349.1708</v>
+        <v>197934.67822</v>
       </c>
       <c r="G11" t="n">
-        <v>322.7131</v>
+        <v>1825.80483</v>
       </c>
       <c r="H11" t="n">
-        <v>48.3518</v>
+        <v>243.759</v>
       </c>
       <c r="I11" t="n">
-        <v>1489.6366</v>
+        <v>1505.88564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62591.89114</v>
+        <v>217756.97844</v>
       </c>
       <c r="C12" t="n">
-        <v>15115.56614</v>
+        <v>43996.16458</v>
       </c>
       <c r="D12" t="n">
-        <v>540.27004</v>
+        <v>1355.79652</v>
       </c>
       <c r="E12" t="n">
-        <v>2.39196</v>
+        <v>862.70943</v>
       </c>
       <c r="F12" t="n">
-        <v>63595.06712</v>
+        <v>220767.25259</v>
       </c>
       <c r="G12" t="n">
-        <v>462.90594</v>
+        <v>1654.47763</v>
       </c>
       <c r="H12" t="n">
-        <v>109.49932</v>
+        <v>254.65012</v>
       </c>
       <c r="I12" t="n">
-        <v>1713.18152</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>74606.02593</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17782.4578</v>
-      </c>
-      <c r="D13" t="n">
-        <v>408.28666</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5825399999999999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>75529.71696000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>515.40437</v>
-      </c>
-      <c r="H13" t="n">
-        <v>76.01683</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1956.4215</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>99093.38548</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19400.52176</v>
-      </c>
-      <c r="D14" t="n">
-        <v>603.32258</v>
-      </c>
-      <c r="E14" t="n">
-        <v>391.59253</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100459.18004</v>
-      </c>
-      <c r="G14" t="n">
-        <v>762.47198</v>
-      </c>
-      <c r="H14" t="n">
-        <v>156.80077</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1659.94398</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>108691.90601</v>
-      </c>
-      <c r="C15" t="n">
-        <v>21650.11168</v>
-      </c>
-      <c r="D15" t="n">
-        <v>568.96673</v>
-      </c>
-      <c r="E15" t="n">
-        <v>386.57619</v>
-      </c>
-      <c r="F15" t="n">
-        <v>110114.37228</v>
-      </c>
-      <c r="G15" t="n">
-        <v>853.49954</v>
-      </c>
-      <c r="H15" t="n">
-        <v>226.8465</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1632.25401</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>119996.77269</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24300.93758</v>
-      </c>
-      <c r="D16" t="n">
-        <v>633.0787</v>
-      </c>
-      <c r="E16" t="n">
-        <v>443.26129</v>
-      </c>
-      <c r="F16" t="n">
-        <v>121505.27937</v>
-      </c>
-      <c r="G16" t="n">
-        <v>875.42798</v>
-      </c>
-      <c r="H16" t="n">
-        <v>250.00548</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1671.95647</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>135091.33424</v>
-      </c>
-      <c r="C17" t="n">
-        <v>27880.471</v>
-      </c>
-      <c r="D17" t="n">
-        <v>679.5054699999999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>492.36215</v>
-      </c>
-      <c r="F17" t="n">
-        <v>136900.6907</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1129.85099</v>
-      </c>
-      <c r="H17" t="n">
-        <v>279.63965</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1582.92303</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>157430.00623</v>
-      </c>
-      <c r="C18" t="n">
-        <v>30534.91323</v>
-      </c>
-      <c r="D18" t="n">
-        <v>863.71657</v>
-      </c>
-      <c r="E18" t="n">
-        <v>611.21356</v>
-      </c>
-      <c r="F18" t="n">
-        <v>159218.09563</v>
-      </c>
-      <c r="G18" t="n">
-        <v>924.37283</v>
-      </c>
-      <c r="H18" t="n">
-        <v>281.20884</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1416.98313</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>174536.84277</v>
-      </c>
-      <c r="C19" t="n">
-        <v>34578.26036</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1045.28518</v>
-      </c>
-      <c r="E19" t="n">
-        <v>799.46629</v>
-      </c>
-      <c r="F19" t="n">
-        <v>176472.89486</v>
-      </c>
-      <c r="G19" t="n">
-        <v>890.7669100000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>263.65517</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1393.19804</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>194677.07876</v>
-      </c>
-      <c r="C20" t="n">
-        <v>40554.50571</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1431.79463</v>
-      </c>
-      <c r="E20" t="n">
-        <v>830.6804</v>
-      </c>
-      <c r="F20" t="n">
-        <v>197934.67822</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1825.80483</v>
-      </c>
-      <c r="H20" t="n">
-        <v>243.759</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1505.88564</v>
+        <v>1384.63861</v>
       </c>
     </row>
   </sheetData>
